--- a/document/分布式爬虫架构.xlsx
+++ b/document/分布式爬虫架构.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\php\xampp72\htdocs\distributedcrawler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\distributedcrawler\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8280" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8280" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="后台管理系统" sheetId="1" r:id="rId1"/>
     <sheet name="架构图" sheetId="2" r:id="rId2"/>
+    <sheet name="Redis数据结构" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>基于Hyperf的微服务主要功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,12 +79,167 @@
     <t>3、向work node发送指令，例如更新代码或发送最新配置等</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>表名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cluster_{cluster_code}_pool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{component_fullcode}</t>
+  </si>
+  <si>
+    <t>作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定集群都可以跑哪些组件
+当启动爬虫时将爬虫的首个组件的code放入该队列中
+当暂停或停止爬虫时将该爬虫的code从队列中删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储数据结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示爬虫待做任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集合(set)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表(list)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_{cluster_code}_{component_fullcode}_do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在做的任务，从do表中取出，同时插入doing表和timeout表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>executor =&gt; 即component_code，例detail
+package =&gt; 即crawler_code，例tmall
+runcode =&gt; 运行代号
+taskid =&gt; 任务唯一编号,用作redis hash key 
+entry =&gt; url
+output =&gt; 任务输出至mongo的表名
+counter =&gt; 任务运行次数，默认0，最多重复运行3次即算运行失败
+cluster =&gt; cluster_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>executor =&gt; 即component_code，例detail
+package =&gt; 即crawler_code，例tmall
+runcode =&gt; 运行代号
+taskid =&gt; 任务唯一编号,用作redis hash key 
+entry =&gt; url
+output =&gt; 任务输出至mongo的表名
+counter =&gt; 任务运行次数，默认0，最多重复运行3次即算运行失败
+cluster =&gt; cluster_code
+worker =&gt; 当前正在做次任务的worker_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">存储数据结构
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hash key是从do表中取得的taskid</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_{cluster_code}_{component_fullcode}_doing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_{cluster_code}_{component_fullcode}_timeout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有序集合(zset)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看doing中的任务是否过期，随着doing移动到done中一起删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储数据结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前时间戳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +276,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -129,12 +294,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -143,7 +323,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -155,6 +335,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5593,7 +5779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="Q4:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
@@ -5658,4 +5844,139 @@
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="117.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="B11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>